--- a/ML Codes and Data/filenames.xlsx
+++ b/ML Codes and Data/filenames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Research\Shonchoy_Covid-19\Draft\Scientific Reports\R&amp;R\ML Codes and Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Research\Shonchoy_Covid-19\Draft\Scientific Reports\R&amp;R\Codes and Data\ML Codes and Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,24 +50,15 @@
     <t>india_90_cases_month.R</t>
   </si>
   <si>
-    <t>The file implements the multiclassification machine learning results using the data on Bangladesh at district level for Covid-19 cases. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 2.</t>
-  </si>
-  <si>
     <t>The file implements the multiclassification machine learning results using the data on Bangladesh at district level-month level for Covid-19 cases. The results are provided in Section D3 of the supplementary file</t>
   </si>
   <si>
-    <t>The file implements the multiclassification machine learning results using the data on India at district level for Covid-19 cases. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 2.</t>
-  </si>
-  <si>
     <t>The file implements the multiclassification machine learning results using the data on India at district level-month level for Covid-19 cases. The results are provided in Section D3 of the supplementary file</t>
   </si>
   <si>
     <t>india_90_deaths.R</t>
   </si>
   <si>
-    <t>The file implements the multiclassification machine learning results using the data on India at district level for Covid-19 deaths. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 2.</t>
-  </si>
-  <si>
     <t>india_90_deaths_month.R</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>pak_90_cases.R</t>
   </si>
   <si>
-    <t>The file implements the multiclassification machine learning results using the data on Pakistan (Sindh) at district level for Covid-19 cases. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 2.</t>
-  </si>
-  <si>
     <t>pak_90_cases_months.R</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>pak_90_deaths.R</t>
   </si>
   <si>
-    <t>The file implements the multiclassification machine learning results using the data on Pakistan (Sindh) at district level for Covid-19 deaths. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 2.</t>
-  </si>
-  <si>
     <t>pak_90_deaths_month.R</t>
   </si>
   <si>
@@ -150,6 +135,21 @@
   </si>
   <si>
     <t>The file implements the binary classification machine learning results using the 75th percentile cut-off and using the data on Pakistan (Sindh) at district-month level for Covid-19 deaths. The results are provided in Section D3 of the supplementary file.</t>
+  </si>
+  <si>
+    <t>The file implements the multiclassification machine learning results using the data on Bangladesh at district level for Covid-19 cases. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 3.</t>
+  </si>
+  <si>
+    <t>The file implements the multiclassification machine learning results using the data on India at district level for Covid-19 cases. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 3.</t>
+  </si>
+  <si>
+    <t>The file implements the multiclassification machine learning results using the data on India at district level for Covid-19 deaths. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 3.</t>
+  </si>
+  <si>
+    <t>The file implements the multiclassification machine learning results using the data on Pakistan (Sindh) at district level for Covid-19 cases. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 3.</t>
+  </si>
+  <si>
+    <t>The file implements the multiclassification machine learning results using the data on Pakistan (Sindh) at district level for Covid-19 deaths. Detailed tables are provided in Section D1 in the supplementary file and summarized in Table 3.</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A2:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -581,119 +581,119 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
